--- a/experiment_results/16168P10.xlsx
+++ b/experiment_results/16168P10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Modern Attractions', 'City Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P25</t>
+          <t>PRODUCTCODE: 244199P28</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Official Guide Tour gives you skip-the-line access at La Sagrada Familia without crowds. Have the Golden Hour with the afternoon light, to admire the magic of the stained-glass windows inside. You'll continue to Park Güell where the city is beneath your feet.</t>
+          <t>Summarized description: The Casa Milà &amp; Casa Batlló explores his life from every corner of its great architectural works to its favorite café. Finally ends his masterpiece with priority entry: the Sagrada Familia!Learn all about Gaudí and his masterpieces during this 3-hour private tour.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Golden Hour in Sagrada Familia Tour &amp; Sunset Sesh at Park Güell </t>
+          <t>Title: Barcelona : Gaudi &amp; Sagrada Familia Private Tour (Skip The Line Entrance)</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5819P123</t>
+          <t>PRODUCTCODE: 17377P25</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of the Cathedral of the Sagrada Familia. Enjoy the facades and the interior of the basilica. The Park Güell has more than 100 years of history and is based on art nouveau.</t>
+          <t>Summarized description: Official Guide Tour gives you skip-the-line access at La Sagrada Familia without crowds. Have the Golden Hour with the afternoon light, to admire the magic of the stained-glass windows inside. You'll continue to Park Güell where the city is beneath your feet.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Guided tour of the Sagrada Familia and Park Güell</t>
+          <t xml:space="preserve">Title: Golden Hour in Sagrada Familia Tour &amp; Sunset Sesh at Park Güell </t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P14</t>
+          <t>PRODUCTCODE: 5819P123</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: The program starts with a 1h 15min guided tour of Park Güell, including fast-track admission. After that, you will have a break to have lunch and get to the afternoon meeting point. You will hear about the history of Gaudí and how he helped shape Barcelona as we know it today.</t>
+          <t>Summarized description: Tour of the Cathedral of the Sagrada Familia. Enjoy the facades and the interior of the basilica. The Park Güell has more than 100 years of history and is based on art nouveau.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Guided Walking Tour in Park Güell and Sagrada Familia</t>
+          <t>Title: Guided tour of the Sagrada Familia and Park Güell</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P293</t>
+          <t>PRODUCTCODE: 243885P14</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Familia and Park Guell are two of Antoni Gaudi's most admired works. This 3 hour guided tour includes fast-track entry to both the cathedral and park.</t>
+          <t>Summarized description: The program starts with a 1h 15min guided tour of Park Güell, including fast-track admission. After that, you will have a break to have lunch and get to the afternoon meeting point. You will hear about the history of Gaudí and how he helped shape Barcelona as we know it today.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Barcelona Skip the Line Sagrada Familia &amp; Parc Guell Private Tour</t>
+          <t>Title: Guided Walking Tour in Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P577</t>
+          <t>PRODUCTCODE: 20455P293</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines &amp; enjoy the nature, architecture &amp; art in the heart of Barcelona. Optional: private car transfers &amp; skip-the-line tickets to La Sagrada Familia.</t>
+          <t>Summarized description: La Sagrada Familia and Park Guell are two of Antoni Gaudi's most admired works. This 3 hour guided tour includes fast-track entry to both the cathedral and park.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Replaced: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
+          <t>Title: Barcelona Skip the Line Sagrada Familia &amp; Parc Guell Private Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220865P2</t>
+          <t>PRODUCTCODE: 332541P577</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are two of Barcelona's most popular tourist attractions. Tour both sites with a licensed guide to see details and secrets you might miss.</t>
+          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines &amp; enjoy the nature, architecture &amp; art in the heart of Barcelona. Optional: private car transfers &amp; skip-the-line tickets to La Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip the Line: Park Güell &amp; La Sagrada Familia Guided Tour </t>
+          <t>Title: Replaced: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340534P1</t>
+          <t>PRODUCTCODE: 220865P2</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Família and Park Güell are two of Antoni Gaudi's modernist masterpieces. Tour both sites to know secrets and highlights you would miss on your own. Relax with private transport between the sights.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are two of Barcelona's most popular tourist attractions. Tour both sites with a licensed guide to see details and secrets you might miss.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
+          <t xml:space="preserve">Title: Skip the Line: Park Güell &amp; La Sagrada Familia Guided Tour </t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P28</t>
+          <t>PRODUCTCODE: 340534P1</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia is a UNESCO-listed masterpiece of Catalan Modernist architecture. Park Güell showcases Gaudí at the peak of his talent. Skip the line through a separate entrance.</t>
+          <t>Summarized description: La Sagrada Família and Park Güell are two of Antoni Gaudi's modernist masterpieces. Tour both sites to know secrets and highlights you would miss on your own. Relax with private transport between the sights.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia &amp; Park Güell Guided Tour (with Transportation)</t>
+          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P240</t>
+          <t>PRODUCTCODE: 196771P28</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the works of Gaudí from his origins to the most famous and emblematic buildings. Visit Casa Vicens, the first project of the architect in Barcelona. Head to Park Guell and enjoy the amazing views over the city.</t>
+          <t>Summarized description: Sagrada Familia is a UNESCO-listed masterpiece of Catalan Modernist architecture. Park Güell showcases Gaudí at the peak of his talent. Skip the line through a separate entrance.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Early access to Casa Vicens and guided tours to Park Güell and Sagrada Familia</t>
+          <t>Title: Sagrada Familia &amp; Park Güell Guided Tour (with Transportation)</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P315</t>
+          <t>PRODUCTCODE: 2140P240</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Get amazing views of Barcelona on board a bus. Skip the long lines to explore the Sagrada Familia and Park Güell. See the amazing Casa Batlló and La Pedrera. Learn the fascinating history of Antoni Gaudi.</t>
+          <t>Summarized description: Learn about the works of Gaudí from his origins to the most famous and emblematic buildings. Visit Casa Vicens, the first project of the architect in Barcelona. Head to Park Guell and enjoy the amazing views over the city.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Familia &amp; Park Güell Exclusive Tour:Live tour guide(with Skip the line) </t>
+          <t>Title: Early access to Casa Vicens and guided tours to Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P573</t>
+          <t>PRODUCTCODE: 6899P12</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines and enjoy the nature, architecture and art in the heart of Barcelona.</t>
+          <t>Summarized description: Lose yourself in the weird and wonderful world of Antoni Gaudi. Enjoy skip-the-line access to his most memorable masterpiece, La Sagrada Familia. Explore inside Casa Milá with an audioguide tour.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
+          <t>Title: Barcelona Shore Excursion:Skip the Line Sagrada Familia, Park Guell &amp; La Pedrera</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P37</t>
+          <t>PRODUCTCODE: 90219P315</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Make seeing the Sagrada Familia the first thing you do in Barcelona. Head to another Gaudi architect masterpiece — Park Güell. Explore Barcelona's most visited sights with the private audio tour.</t>
+          <t>Summarized description: Get amazing views of Barcelona on board a bus. Skip the long lines to explore the Sagrada Familia and Park Güell. See the amazing Casa Batlló and La Pedrera. Learn the fascinating history of Antoni Gaudi.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: The Best of Barcelona Audio Tour: Sagrada Familia, Park Guell &amp; Gothic Quarter</t>
+          <t xml:space="preserve">Title: Sagrada Familia &amp; Park Güell Exclusive Tour:Live tour guide(with Skip the line) </t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26153P30</t>
+          <t>PRODUCTCODE: 332541P573</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: The UNESCO recognized Sagrada Familia Cathedral is the symbol of Barcelona that is unique and visually enchanting. Step into Gaudì’s enchanted universe with this child-friendly 4-hour tour.</t>
+          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines and enjoy the nature, architecture and art in the heart of Barcelona.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia and Park Güell Adventure for Kids</t>
+          <t>Title: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P251</t>
+          <t>PRODUCTCODE: 332541P576</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Travel to and from the works in a private, air-conditioned bus.</t>
+          <t>Summarized description: Park Güell is one of Barcelona’s most popular attractions for both adults and children. Save time with skip-the-line tickets and explore one of the most impressive public parks.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Fast Sagrada Familia &amp; Park Guell Guided Tour with Transportation-Group Option</t>
+          <t>Title: Skip-the-line Park Güell Private Tour with Transfers</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 399040P1</t>
+          <t>PRODUCTCODE: 193119P5</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are two of Antoni Gaudí's most famous works of art. Enjoy a skip-the-line tour and private transport between the two sites.</t>
+          <t>Summarized description: Antoni Gaudis two most famous landmarks, including guided tours of the Parc Guel and Casa Batlló. See Guell Park’s colorful walls, floors, columns created by Gaudi. Enjoy panoramas of Barcelona from Carmel Hill.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
+          <t>Title: Barcelona Combo : Park Güell &amp; Casa Batlló Guided Tour (Skip-the-Line)</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P24</t>
+          <t>PRODUCTCODE: 226727P37</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Your tour begins at 9:30am outside of Bar Picasso, located on Carrer Mallorca in central Barcelona. Walk to La Sagrada Familia, indisputably Antoni Gaudi’s most famous work, before heading inside and bypassing long lines.</t>
+          <t>Summarized description: Make seeing the Sagrada Familia the first thing you do in Barcelona. Head to another Gaudi architect masterpiece — Park Güell. Explore Barcelona's most visited sights with the private audio tour.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Exclusive Barcelona Tour Skip-The-Line Sagrada Familia &amp; Park Güell Guided Tour</t>
+          <t>Title: The Best of Barcelona Audio Tour: Sagrada Familia, Park Guell &amp; Gothic Quarter</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6310GAUDI</t>
+          <t>PRODUCTCODE: 26153P30</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the Modernist maestro who stamped his mark on the city. Visit four of his top creations: La Pedrera, Casa Batlló, Park Güell and the UNESCO-listed La Sagrada Familia cathedral.</t>
+          <t>Summarized description: The UNESCO recognized Sagrada Familia Cathedral is the symbol of Barcelona that is unique and visually enchanting. Step into Gaudì’s enchanted universe with this child-friendly 4-hour tour.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Gaudi Tour Including La Sagrada Familia, Park Güell, La Pedrera and Casa Batlló</t>
+          <t>Title: Sagrada Familia and Park Güell Adventure for Kids</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Workshops and Classes']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 152250P7</t>
+          <t>PRODUCTCODE: 3731P251</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Discover both Park Güell and Sagrada Familia with an efficiently designed Half Day Tour. Get good quality tours at the most visited monuments in Barcelona, whilst saving time to make the most of your trip.</t>
+          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Travel to and from the works in a private, air-conditioned bus.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Half Day Gaudi Tour: Park Güell and Sagrada Familia</t>
+          <t>Title: Fast Sagrada Familia &amp; Park Guell Guided Tour with Transportation-Group Option</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P101</t>
+          <t>PRODUCTCODE: 399040P1</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the interior of Sagrada Familia as the audio guide explains the details of Gaudi's creation. Find out about the numerous symbols on the facades of the church. Admire panoramic views of the city in Park Guell. Explore the limits of human imagination in one of the most extraordinary parks in the World.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are two of Antoni Gaudí's most famous works of art. Enjoy a skip-the-line tour and private transport between the two sites.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: 2 Days Gaudi Combo: Sagrada Familia &amp; Park Guell Tickets with In-App Audio Tour</t>
+          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350808P2695</t>
+          <t>PRODUCTCODE: 90219P24</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour of Sagrada Familia and Park Guell. Private excursions are meticulously designed schedule. Leave the details to us as we escort you on an extraordinary adventure.</t>
+          <t>Summarized description: Your tour begins at 9:30am outside of Bar Picasso, located on Carrer Mallorca in central Barcelona. Walk to La Sagrada Familia, indisputably Antoni Gaudi’s most famous work, before heading inside and bypassing long lines.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Sagrada Familia and Park Guell</t>
+          <t>Title: Exclusive Barcelona Tour Skip-The-Line Sagrada Familia &amp; Park Güell Guided Tour</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P287</t>
+          <t>PRODUCTCODE: 6310GAUDI</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
+          <t>Summarized description: Learn all about the Modernist maestro who stamped his mark on the city. Visit four of his top creations: La Pedrera, Casa Batlló, Park Güell and the UNESCO-listed La Sagrada Familia cathedral.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Park Güell and La Sagrada Familia Tour in Barcelona - Group Opt</t>
+          <t>Title: Skip the Line: Gaudi Tour Including La Sagrada Familia, Park Güell, La Pedrera and Casa Batlló</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Workshops and Classes', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P41</t>
+          <t>PRODUCTCODE: 152250P7</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Both Sagrada Familia and Park Güell make the top of the list for most travelers. This private guided tour comprises an instant skip-the-line entry to both landmarks as well as the expert commentary of your personal knowledgeable guides.</t>
+          <t>Summarized description: Discover both Park Güell and Sagrada Familia with an efficiently designed Half Day Tour. Get good quality tours at the most visited monuments in Barcelona, whilst saving time to make the most of your trip.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Private Tour Sagrada Familia &amp; Park Guell</t>
+          <t>Title: Half Day Gaudi Tour: Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 302481P101</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18229,6 +18229,531 @@
       <c r="H1182" t="inlineStr"/>
       <c r="I1182" t="inlineStr"/>
     </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore the interior of Sagrada Familia as the audio guide explains the details of Gaudi's creation. Find out about the numerous symbols on the facades of the church. Admire panoramic views of the city in Park Guell. Explore the limits of human imagination in one of the most extraordinary parks in the World.</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr"/>
+      <c r="C1183" t="inlineStr"/>
+      <c r="D1183" t="inlineStr"/>
+      <c r="E1183" t="inlineStr"/>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="inlineStr"/>
+      <c r="H1183" t="inlineStr"/>
+      <c r="I1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>Title: 2 Days Gaudi Combo: Sagrada Familia &amp; Park Guell Tickets with In-App Audio Tour</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr"/>
+      <c r="E1184" t="inlineStr"/>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="inlineStr"/>
+      <c r="H1184" t="inlineStr"/>
+      <c r="I1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr"/>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr"/>
+      <c r="E1185" t="inlineStr"/>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="inlineStr"/>
+      <c r="H1185" t="inlineStr"/>
+      <c r="I1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr"/>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr"/>
+      <c r="E1186" t="inlineStr"/>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr"/>
+      <c r="H1186" t="inlineStr"/>
+      <c r="I1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 350808P2695</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr"/>
+      <c r="C1187" t="inlineStr"/>
+      <c r="D1187" t="inlineStr"/>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="inlineStr"/>
+      <c r="H1187" t="inlineStr"/>
+      <c r="I1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Summarized description: Private tour of Sagrada Familia and Park Guell. Private excursions are meticulously designed schedule. Leave the details to us as we escort you on an extraordinary adventure.</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="inlineStr"/>
+      <c r="H1188" t="inlineStr"/>
+      <c r="I1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>Title: Private Tour of Sagrada Familia and Park Guell</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr"/>
+      <c r="H1189" t="inlineStr"/>
+      <c r="I1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="inlineStr"/>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="inlineStr"/>
+      <c r="H1190" t="inlineStr"/>
+      <c r="I1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="inlineStr"/>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="inlineStr"/>
+      <c r="H1191" t="inlineStr"/>
+      <c r="I1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 2140P287</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr"/>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="inlineStr"/>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="inlineStr"/>
+      <c r="H1192" t="inlineStr"/>
+      <c r="I1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr"/>
+      <c r="D1193" t="inlineStr"/>
+      <c r="E1193" t="inlineStr"/>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="inlineStr"/>
+      <c r="H1193" t="inlineStr"/>
+      <c r="I1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>Title: Skip the Line: Park Güell and La Sagrada Familia Tour in Barcelona - Group Opt</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr"/>
+      <c r="C1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr"/>
+      <c r="E1194" t="inlineStr"/>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="inlineStr"/>
+      <c r="H1194" t="inlineStr"/>
+      <c r="I1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="inlineStr"/>
+      <c r="H1195" t="inlineStr"/>
+      <c r="I1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr"/>
+      <c r="E1196" t="inlineStr"/>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="inlineStr"/>
+      <c r="H1196" t="inlineStr"/>
+      <c r="I1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 17377P54</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr"/>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="inlineStr"/>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="inlineStr"/>
+      <c r="H1197" t="inlineStr"/>
+      <c r="I1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>Summarized description: Tour includes skip-the-line access to La Sagrada Familia, Parc Guell, and La Pedrera. Includes guided visits to the Gothic Quarter and Montjuic.</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr"/>
+      <c r="D1198" t="inlineStr"/>
+      <c r="E1198" t="inlineStr"/>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="inlineStr"/>
+      <c r="H1198" t="inlineStr"/>
+      <c r="I1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Skip the Line Tour: Sagrada Familia, Park Güell &amp; La Pedrera - Group</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr"/>
+      <c r="C1199" t="inlineStr"/>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="inlineStr"/>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="inlineStr"/>
+      <c r="H1199" t="inlineStr"/>
+      <c r="I1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr"/>
+      <c r="C1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr"/>
+      <c r="E1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="inlineStr"/>
+      <c r="H1200" t="inlineStr"/>
+      <c r="I1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr"/>
+      <c r="C1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr"/>
+      <c r="E1201" t="inlineStr"/>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="inlineStr"/>
+      <c r="H1201" t="inlineStr"/>
+      <c r="I1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 186143P5</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr"/>
+      <c r="C1202" t="inlineStr"/>
+      <c r="D1202" t="inlineStr"/>
+      <c r="E1202" t="inlineStr"/>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="inlineStr"/>
+      <c r="H1202" t="inlineStr"/>
+      <c r="I1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit La Sagrada Familia Museum to see a variety of artifacts such as design sketches and plaster models. See the facades and the interiors of the basilica.</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr"/>
+      <c r="C1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr"/>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr"/>
+      <c r="H1203" t="inlineStr"/>
+      <c r="I1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>Title: Barcelona : Sagrada Familia Guided Tour (Skip the ticket line)</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr"/>
+      <c r="E1204" t="inlineStr"/>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr"/>
+      <c r="H1204" t="inlineStr"/>
+      <c r="I1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr"/>
+      <c r="C1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr"/>
+      <c r="E1205" t="inlineStr"/>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr"/>
+      <c r="H1205" t="inlineStr"/>
+      <c r="I1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>Category: ['Museums']</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
+      <c r="D1206" t="inlineStr"/>
+      <c r="E1206" t="inlineStr"/>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr"/>
+      <c r="H1206" t="inlineStr"/>
+      <c r="I1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 145071P106</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr"/>
+      <c r="C1207" t="inlineStr"/>
+      <c r="D1207" t="inlineStr"/>
+      <c r="E1207" t="inlineStr"/>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="inlineStr"/>
+      <c r="H1207" t="inlineStr"/>
+      <c r="I1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>Summarized description: Guided visit inside Sagrada Familiy, Skip the Line. Walking tour of Barcelona's Gothic Quarter. Visit to Gaudi's famous La Pedrera.</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr"/>
+      <c r="C1208" t="inlineStr"/>
+      <c r="D1208" t="inlineStr"/>
+      <c r="E1208" t="inlineStr"/>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="inlineStr"/>
+      <c r="H1208" t="inlineStr"/>
+      <c r="I1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>Title: Best of Barcelona Tour w/ Sagrada Familia Skip-the-Line</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr"/>
+      <c r="E1209" t="inlineStr"/>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="inlineStr"/>
+      <c r="H1209" t="inlineStr"/>
+      <c r="I1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr"/>
+      <c r="C1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr"/>
+      <c r="E1210" t="inlineStr"/>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="inlineStr"/>
+      <c r="H1210" t="inlineStr"/>
+      <c r="I1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr"/>
+      <c r="C1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr"/>
+      <c r="E1211" t="inlineStr"/>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr"/>
+      <c r="H1211" t="inlineStr"/>
+      <c r="I1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 31070P41</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr"/>
+      <c r="C1212" t="inlineStr"/>
+      <c r="D1212" t="inlineStr"/>
+      <c r="E1212" t="inlineStr"/>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr"/>
+      <c r="H1212" t="inlineStr"/>
+      <c r="I1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>Summarized description: Both Sagrada Familia and Park Güell make the top of the list for most travelers. This private guided tour comprises an instant skip-the-line entry to both landmarks as well as the expert commentary of your personal knowledgeable guides.</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr"/>
+      <c r="C1213" t="inlineStr"/>
+      <c r="D1213" t="inlineStr"/>
+      <c r="E1213" t="inlineStr"/>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="inlineStr"/>
+      <c r="H1213" t="inlineStr"/>
+      <c r="I1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>Title: Private Tour Sagrada Familia &amp; Park Guell</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr"/>
+      <c r="C1214" t="inlineStr"/>
+      <c r="D1214" t="inlineStr"/>
+      <c r="E1214" t="inlineStr"/>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="inlineStr"/>
+      <c r="H1214" t="inlineStr"/>
+      <c r="I1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr"/>
+      <c r="C1215" t="inlineStr"/>
+      <c r="D1215" t="inlineStr"/>
+      <c r="E1215" t="inlineStr"/>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="inlineStr"/>
+      <c r="H1215" t="inlineStr"/>
+      <c r="I1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr"/>
+      <c r="C1216" t="inlineStr"/>
+      <c r="D1216" t="inlineStr"/>
+      <c r="E1216" t="inlineStr"/>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr"/>
+      <c r="H1216" t="inlineStr"/>
+      <c r="I1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr"/>
+      <c r="C1217" t="inlineStr"/>
+      <c r="D1217" t="inlineStr"/>
+      <c r="E1217" t="inlineStr"/>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="inlineStr"/>
+      <c r="H1217" t="inlineStr"/>
+      <c r="I1217" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/16168P10.xlsx
+++ b/experiment_results/16168P10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11571,7 +11571,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B739" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P28</t>
+          <t>PRODUCTCODE: 244199P8</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia is a UNESCO-listed masterpiece of Catalan Modernist architecture. Park Güell showcases Gaudí at the peak of his talent. Skip the line through a separate entrance.</t>
+          <t>Summarized description: Discover Gaudi's masterpieces as we explore Barcelona's finest. From the Casa Batllo in Gaudí, the Sagrada Familia to Park Guell with a priority pass and more.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia &amp; Park Güell Guided Tour (with Transportation)</t>
+          <t>Title: Guided Skip the line ticket Park Guell &amp; Gaudi's Masterpieces Experience</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P240</t>
+          <t>PRODUCTCODE: 196771P28</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the works of Gaudí from his origins to the most famous and emblematic buildings. Visit Casa Vicens, the first project of the architect in Barcelona. Head to Park Guell and enjoy the amazing views over the city.</t>
+          <t>Summarized description: Sagrada Familia is a UNESCO-listed masterpiece of Catalan Modernist architecture. Park Güell showcases Gaudí at the peak of his talent. Skip the line through a separate entrance.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Early access to Casa Vicens and guided tours to Park Güell and Sagrada Familia</t>
+          <t>Title: Sagrada Familia &amp; Park Güell Guided Tour (with Transportation)</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899P12</t>
+          <t>PRODUCTCODE: 2140P240</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Lose yourself in the weird and wonderful world of Antoni Gaudi. Enjoy skip-the-line access to his most memorable masterpiece, La Sagrada Familia. Explore inside Casa Milá with an audioguide tour.</t>
+          <t>Summarized description: Learn about the works of Gaudí from his origins to the most famous and emblematic buildings. Visit Casa Vicens, the first project of the architect in Barcelona. Head to Park Guell and enjoy the amazing views over the city.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Barcelona Shore Excursion:Skip the Line Sagrada Familia, Park Guell &amp; La Pedrera</t>
+          <t>Title: Early access to Casa Vicens and guided tours to Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P315</t>
+          <t>PRODUCTCODE: 6899P12</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Get amazing views of Barcelona on board a bus. Skip the long lines to explore the Sagrada Familia and Park Güell. See the amazing Casa Batlló and La Pedrera. Learn the fascinating history of Antoni Gaudi.</t>
+          <t>Summarized description: Lose yourself in the weird and wonderful world of Antoni Gaudi. Enjoy skip-the-line access to his most memorable masterpiece, La Sagrada Familia. Explore inside Casa Milá with an audioguide tour.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Familia &amp; Park Güell Exclusive Tour:Live tour guide(with Skip the line) </t>
+          <t>Title: Barcelona Shore Excursion:Skip the Line Sagrada Familia, Park Guell &amp; La Pedrera</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P573</t>
+          <t>PRODUCTCODE: 90219P315</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines and enjoy the nature, architecture and art in the heart of Barcelona.</t>
+          <t>Summarized description: Get amazing views of Barcelona on board a bus. Skip the long lines to explore the Sagrada Familia and Park Güell. See the amazing Casa Batlló and La Pedrera. Learn the fascinating history of Antoni Gaudi.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
+          <t xml:space="preserve">Title: Sagrada Familia &amp; Park Güell Exclusive Tour:Live tour guide(with Skip the line) </t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P576</t>
+          <t>PRODUCTCODE: 332541P573</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Park Güell is one of Barcelona’s most popular attractions for both adults and children. Save time with skip-the-line tickets and explore one of the most impressive public parks.</t>
+          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines and enjoy the nature, architecture and art in the heart of Barcelona.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line Park Güell Private Tour with Transfers</t>
+          <t>Title: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 193119P5</t>
+          <t>PRODUCTCODE: 332541P576</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Antoni Gaudis two most famous landmarks, including guided tours of the Parc Guel and Casa Batlló. See Guell Park’s colorful walls, floors, columns created by Gaudi. Enjoy panoramas of Barcelona from Carmel Hill.</t>
+          <t>Summarized description: Park Güell is one of Barcelona’s most popular attractions for both adults and children. Save time with skip-the-line tickets and explore one of the most impressive public parks.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Barcelona Combo : Park Güell &amp; Casa Batlló Guided Tour (Skip-the-Line)</t>
+          <t>Title: Skip-the-line Park Güell Private Tour with Transfers</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P37</t>
+          <t>PRODUCTCODE: 193119P5</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Make seeing the Sagrada Familia the first thing you do in Barcelona. Head to another Gaudi architect masterpiece — Park Güell. Explore Barcelona's most visited sights with the private audio tour.</t>
+          <t>Summarized description: Antoni Gaudis two most famous landmarks, including guided tours of the Parc Guel and Casa Batlló. See Guell Park’s colorful walls, floors, columns created by Gaudi. Enjoy panoramas of Barcelona from Carmel Hill.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: The Best of Barcelona Audio Tour: Sagrada Familia, Park Guell &amp; Gothic Quarter</t>
+          <t>Title: Barcelona Combo : Park Güell &amp; Casa Batlló Guided Tour (Skip-the-Line)</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26153P30</t>
+          <t>PRODUCTCODE: 226727P37</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: The UNESCO recognized Sagrada Familia Cathedral is the symbol of Barcelona that is unique and visually enchanting. Step into Gaudì’s enchanted universe with this child-friendly 4-hour tour.</t>
+          <t>Summarized description: Make seeing the Sagrada Familia the first thing you do in Barcelona. Head to another Gaudi architect masterpiece — Park Güell. Explore Barcelona's most visited sights with the private audio tour.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia and Park Güell Adventure for Kids</t>
+          <t>Title: The Best of Barcelona Audio Tour: Sagrada Familia, Park Guell &amp; Gothic Quarter</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P251</t>
+          <t>PRODUCTCODE: 26153P30</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Travel to and from the works in a private, air-conditioned bus.</t>
+          <t>Summarized description: The UNESCO recognized Sagrada Familia Cathedral is the symbol of Barcelona that is unique and visually enchanting. Step into Gaudì’s enchanted universe with this child-friendly 4-hour tour.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Fast Sagrada Familia &amp; Park Guell Guided Tour with Transportation-Group Option</t>
+          <t>Title: Sagrada Familia and Park Güell Adventure for Kids</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 399040P1</t>
+          <t>PRODUCTCODE: 3731P251</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are two of Antoni Gaudí's most famous works of art. Enjoy a skip-the-line tour and private transport between the two sites.</t>
+          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Travel to and from the works in a private, air-conditioned bus.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
+          <t>Title: Fast Sagrada Familia &amp; Park Guell Guided Tour with Transportation-Group Option</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P24</t>
+          <t>PRODUCTCODE: 399040P1</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Your tour begins at 9:30am outside of Bar Picasso, located on Carrer Mallorca in central Barcelona. Walk to La Sagrada Familia, indisputably Antoni Gaudi’s most famous work, before heading inside and bypassing long lines.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are two of Antoni Gaudí's most famous works of art. Enjoy a skip-the-line tour and private transport between the two sites.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Exclusive Barcelona Tour Skip-The-Line Sagrada Familia &amp; Park Güell Guided Tour</t>
+          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6310GAUDI</t>
+          <t>PRODUCTCODE: 90219P24</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about the Modernist maestro who stamped his mark on the city. Visit four of his top creations: La Pedrera, Casa Batlló, Park Güell and the UNESCO-listed La Sagrada Familia cathedral.</t>
+          <t>Summarized description: Your tour begins at 9:30am outside of Bar Picasso, located on Carrer Mallorca in central Barcelona. Walk to La Sagrada Familia, indisputably Antoni Gaudi’s most famous work, before heading inside and bypassing long lines.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Gaudi Tour Including La Sagrada Familia, Park Güell, La Pedrera and Casa Batlló</t>
+          <t>Title: Exclusive Barcelona Tour Skip-The-Line Sagrada Familia &amp; Park Güell Guided Tour</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 152250P7</t>
+          <t>PRODUCTCODE: 6310GAUDI</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Discover both Park Güell and Sagrada Familia with an efficiently designed Half Day Tour. Get good quality tours at the most visited monuments in Barcelona, whilst saving time to make the most of your trip.</t>
+          <t>Summarized description: Learn all about the Modernist maestro who stamped his mark on the city. Visit four of his top creations: La Pedrera, Casa Batlló, Park Güell and the UNESCO-listed La Sagrada Familia cathedral.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Half Day Gaudi Tour: Park Güell and Sagrada Familia</t>
+          <t>Title: Skip the Line: Gaudi Tour Including La Sagrada Familia, Park Güell, La Pedrera and Casa Batlló</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P101</t>
+          <t>PRODUCTCODE: 152250P7</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the interior of Sagrada Familia as the audio guide explains the details of Gaudi's creation. Find out about the numerous symbols on the facades of the church. Admire panoramic views of the city in Park Guell. Explore the limits of human imagination in one of the most extraordinary parks in the World.</t>
+          <t>Summarized description: Discover both Park Güell and Sagrada Familia with an efficiently designed Half Day Tour. Get good quality tours at the most visited monuments in Barcelona, whilst saving time to make the most of your trip.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: 2 Days Gaudi Combo: Sagrada Familia &amp; Park Guell Tickets with In-App Audio Tour</t>
+          <t>Title: Half Day Gaudi Tour: Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350808P2695</t>
+          <t>PRODUCTCODE: 302481P101</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour of Sagrada Familia and Park Guell. Private excursions are meticulously designed schedule. Leave the details to us as we escort you on an extraordinary adventure.</t>
+          <t>Summarized description: Explore the interior of Sagrada Familia as the audio guide explains the details of Gaudi's creation. Find out about the numerous symbols on the facades of the church. Admire panoramic views of the city in Park Guell. Explore the limits of human imagination in one of the most extraordinary parks in the World.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Sagrada Familia and Park Guell</t>
+          <t>Title: 2 Days Gaudi Combo: Sagrada Familia &amp; Park Guell Tickets with In-App Audio Tour</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P287</t>
+          <t>PRODUCTCODE: 350808P2695</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
+          <t>Summarized description: Private tour of Sagrada Familia and Park Guell. Private excursions are meticulously designed schedule. Leave the details to us as we escort you on an extraordinary adventure.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Park Güell and La Sagrada Familia Tour in Barcelona - Group Opt</t>
+          <t>Title: Private Tour of Sagrada Familia and Park Guell</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P54</t>
+          <t>PRODUCTCODE: 2140P287</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes skip-the-line access to La Sagrada Familia, Parc Guell, and La Pedrera. Includes guided visits to the Gothic Quarter and Montjuic.</t>
+          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Barcelona Skip the Line Tour: Sagrada Familia, Park Güell &amp; La Pedrera - Group</t>
+          <t>Title: Skip the Line: Park Güell and La Sagrada Familia Tour in Barcelona - Group Opt</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P5</t>
+          <t>PRODUCTCODE: 17377P54</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Visit La Sagrada Familia Museum to see a variety of artifacts such as design sketches and plaster models. See the facades and the interiors of the basilica.</t>
+          <t>Summarized description: Tour includes skip-the-line access to La Sagrada Familia, Parc Guell, and La Pedrera. Includes guided visits to the Gothic Quarter and Montjuic.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Barcelona : Sagrada Familia Guided Tour (Skip the ticket line)</t>
+          <t>Title: Barcelona Skip the Line Tour: Sagrada Familia, Park Güell &amp; La Pedrera - Group</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P106</t>
+          <t>PRODUCTCODE: 186143P5</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Guided visit inside Sagrada Familiy, Skip the Line. Walking tour of Barcelona's Gothic Quarter. Visit to Gaudi's famous La Pedrera.</t>
+          <t>Summarized description: Visit La Sagrada Familia Museum to see a variety of artifacts such as design sketches and plaster models. See the facades and the interiors of the basilica.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Best of Barcelona Tour w/ Sagrada Familia Skip-the-Line</t>
+          <t>Title: Barcelona : Sagrada Familia Guided Tour (Skip the ticket line)</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P41</t>
+          <t>PRODUCTCODE: 145071P106</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Both Sagrada Familia and Park Güell make the top of the list for most travelers. This private guided tour comprises an instant skip-the-line entry to both landmarks as well as the expert commentary of your personal knowledgeable guides.</t>
+          <t>Summarized description: Guided visit inside Sagrada Familiy, Skip the Line. Walking tour of Barcelona's Gothic Quarter. Visit to Gaudi's famous La Pedrera.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Private Tour Sagrada Familia &amp; Park Guell</t>
+          <t>Title: Best of Barcelona Tour w/ Sagrada Familia Skip-the-Line</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 31070P41</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18754,6 +18754,81 @@
       <c r="H1217" t="inlineStr"/>
       <c r="I1217" t="inlineStr"/>
     </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>Summarized description: Both Sagrada Familia and Park Güell make the top of the list for most travelers. This private guided tour comprises an instant skip-the-line entry to both landmarks as well as the expert commentary of your personal knowledgeable guides.</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr"/>
+      <c r="C1218" t="inlineStr"/>
+      <c r="D1218" t="inlineStr"/>
+      <c r="E1218" t="inlineStr"/>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="inlineStr"/>
+      <c r="H1218" t="inlineStr"/>
+      <c r="I1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>Title: Private Tour Sagrada Familia &amp; Park Guell</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr"/>
+      <c r="C1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr"/>
+      <c r="E1219" t="inlineStr"/>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="inlineStr"/>
+      <c r="H1219" t="inlineStr"/>
+      <c r="I1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr"/>
+      <c r="C1220" t="inlineStr"/>
+      <c r="D1220" t="inlineStr"/>
+      <c r="E1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="inlineStr"/>
+      <c r="H1220" t="inlineStr"/>
+      <c r="I1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr"/>
+      <c r="C1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr"/>
+      <c r="E1221" t="inlineStr"/>
+      <c r="F1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr"/>
+      <c r="H1221" t="inlineStr"/>
+      <c r="I1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr"/>
+      <c r="C1222" t="inlineStr"/>
+      <c r="D1222" t="inlineStr"/>
+      <c r="E1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr"/>
+      <c r="G1222" t="inlineStr"/>
+      <c r="H1222" t="inlineStr"/>
+      <c r="I1222" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/16168P10.xlsx
+++ b/experiment_results/16168P10.xlsx
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15096,7 +15096,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Workshops and Classes']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>

--- a/experiment_results/16168P10.xlsx
+++ b/experiment_results/16168P10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1494"/>
+  <dimension ref="A1:I1309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1926,7 +1926,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3726,7 +3726,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -4551,7 +4551,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -4626,7 +4626,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -4851,7 +4851,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -5226,7 +5226,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -5751,7 +5751,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -5901,7 +5901,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6351,7 +6351,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -6576,7 +6576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -6651,7 +6651,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Performing Arts']</t>
+          <t>Category: ['Performing Arts', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -7251,7 +7251,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -7551,7 +7551,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -7626,7 +7626,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -7776,7 +7776,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -8076,7 +8076,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8376,7 +8376,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -8451,7 +8451,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -8751,7 +8751,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -8826,7 +8826,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -8976,7 +8976,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -9126,7 +9126,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -9651,7 +9651,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -9876,7 +9876,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -10176,7 +10176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -10551,7 +10551,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10851,7 +10851,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B691" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B701" t="inlineStr"/>
@@ -11376,7 +11376,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11451,7 +11451,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11526,7 +11526,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B736" t="inlineStr"/>
@@ -11676,7 +11676,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11976,7 +11976,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B766" t="inlineStr"/>
@@ -12051,7 +12051,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -12201,7 +12201,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12276,7 +12276,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -12351,7 +12351,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B791" t="inlineStr"/>
@@ -12426,7 +12426,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -12576,7 +12576,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12651,7 +12651,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12726,7 +12726,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12801,7 +12801,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12951,7 +12951,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13176,7 +13176,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B846" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13476,7 +13476,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B866" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13776,7 +13776,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Workshops and Classes', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -13851,7 +13851,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -13926,7 +13926,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -14076,7 +14076,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B906" t="inlineStr"/>
@@ -14151,7 +14151,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14226,7 +14226,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14526,7 +14526,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14601,7 +14601,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14676,7 +14676,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14751,7 +14751,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14826,7 +14826,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14976,7 +14976,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -15051,7 +15051,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340934P1</t>
+          <t>PRODUCTCODE: 2140SAGRADAGUELL</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and architecture of Antoni Gaudi’s masterpiece. observe the sculptures with mosaics in various colours. The tour is offered in many languages like English, French, German, and Spanish.</t>
+          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Title: Park Guell Guided Tour with Skip the Line Ticket</t>
+          <t>Title: Park Guell &amp; Sagrada Familia Skip the Line Tour in Barcelona</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>TotalReviews: 2303</t>
+          <t>TotalReviews: 759</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 190179P1</t>
+          <t>PRODUCTCODE: 110975P4</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden secrets in every corner of Gaudí's masterpiece. Expert guide will reveal the stories behind the stunning stained glass windows. Exclusive skip-the-line access to the Sagrada Familia.</t>
+          <t>Summarized description: Learn all about the life of the father of Modernist Architecture in the best Barcelona Gaudi’s Private Tour. Visit his most famous buildings and the places he frequented with your expert local guide. Skipe the line tickets included.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Familia - Guided tour &amp; skip the line access </t>
+          <t>Title: Sagrada Familia and Gaudi Private Tour with Skip the Line Tickets</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 1125</t>
+          <t>TotalReviews: 598</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140BCNPARKGUELL</t>
+          <t>PRODUCTCODE: 228699GUELLEXC</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the most artistic park in the city of Barcelona. Join us for a guided tour through the site and learn about its history by the hand of a local guide.</t>
+          <t>Summarized description: Barcelonan park known for Gaudí’s playful architectural creations. Expert guide will explain you all the secrets of the Park and its construction. Enjoy the beatiful buildings, sculptures and mosaics.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Park Guell Guided Tour with Skip the Line Ticket </t>
+          <t>Title: Park Guell Guided Tour with Skip the Line Tickets</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 730</t>
+          <t>TotalReviews: 382</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 228699GUELLEXC</t>
+          <t>PRODUCTCODE: 340934P4</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelonan park known for Gaudí’s playful architectural creations. Expert guide will explain you all the secrets of the Park and its construction. Enjoy the beatiful buildings, sculptures and mosaics.</t>
+          <t>Summarized description: All-inclusive package includes tickets to the monument, museum access, and entry to the Sagrada Familia. Professional guide will meet you 15 minutes prior to the tour at the meeting point specified in your voucher.</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: Park Guell Guided Tour with Skip the Line Tickets</t>
+          <t>Title: Sagrada Familia Guided Tour with Skip The line Ticket</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 382</t>
+          <t>TotalReviews: 346</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340934P2</t>
+          <t>PRODUCTCODE: 2140GAUDISF</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: Park Güell is one of the finest and most lively modernist parks created by Antoni Gaudí. Timed Park Guell tickets ensure you enter at a certain time.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are two of the most important landmark in the city of Barcelona. Admire Gaudí’s mastery and learn about the symbolism of his most known works.</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Title: Park Guell Tickets with Skip The Line Entrance</t>
+          <t xml:space="preserve">Title: The Best of Gaudi Tour: Fast Track Sagrada Familia &amp; Park Guell </t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 351</t>
+          <t>TotalReviews: 233</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340934P4</t>
+          <t>PRODUCTCODE: 333987P1</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: All-inclusive package includes tickets to the monument, museum access, and entry to the Sagrada Familia. Professional guide will meet you 15 minutes prior to the tour at the meeting point specified in your voucher.</t>
+          <t>Summarized description: Experience Gaudí´s world-renowned works, Sagrada Familia and Güell Park. Enjoy a drink and tapa and learn about Iberian ham. Be guided by local, English-speaking licensed Tour Guides.</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Guided Tour with Skip The line Ticket</t>
+          <t>Title: Sagrada Familia &amp; Guell Park Small Group Tour with Drink &amp; Tapa</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 346</t>
+          <t>TotalReviews: 205</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140GAUDISF</t>
+          <t>PRODUCTCODE: 9866P57</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are two of the most important landmark in the city of Barcelona. Admire Gaudí’s mastery and learn about the symbolism of his most known works.</t>
+          <t>Summarized description: Barcelona is a colorful and full of secrets city. skip-the-line access to Gaudi's masterpieces La Sagrada Familia and Park Güell. Your expert guide will pick you up at your hotel or apartment.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Best of Gaudi Tour: Fast Track Sagrada Familia &amp; Park Guell </t>
+          <t>Title: Park Guell &amp; Sagrada Familia Private Tour with Hotel pick-up</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 233</t>
+          <t>TotalReviews: 178</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374952P2</t>
+          <t>PRODUCTCODE: 231273P6</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: The world famous church in Barcelona, which was built by Antoni Gaudi. Save valuable time and money with our prepaid online tickets. Visit the church on a guided tour of the city.</t>
+          <t>Summarized description:  Skip the lines at Barcelona’s two main Gaudi masterpieces with this fast-track tour. Your guide picking you up at your hotel, you'll head straight to the Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Familia Skip the Line Ticket with Audioguide </t>
+          <t xml:space="preserve">Title: Gaudi Complete Tour: Sagrada Familia &amp; Park Guell </t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 190</t>
+          <t>TotalReviews: 131</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 190179P9</t>
+          <t>PRODUCTCODE: 22869P15</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: The park was designed by Antoni Gaudí more than 100 years ago. Join one of the most friendly, interesting and knowledgeable guided tours. The 1h and 15 minute guide guarantees skip-the-line access.</t>
+          <t>Summarized description: La Sagrada Familia is one of Gaudí's most famous works in Barcelona. It's a giant Basilica that has been under construction since 1882. The Park Güell is a miniature city of houses for the wealthy in landscaped grounds. It originated in 1900, when Count Eusebi Guell bought a tree-covered hillside.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: Park Güell Guided Tour with Skip-the-Line Ticket</t>
+          <t>Title: Park Guell and Sagrada Familia Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 136</t>
+          <t>TotalReviews: 118</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P7</t>
+          <t>PRODUCTCODE: 231273P7</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is one of the most important and beautiful monuments in Barcelona. Designed meticulously by the great architect Antoni Gaudí, this church is still under construction. At the end of your tour you can stay inside the church and visit the museum.</t>
+          <t>Summarized description: Skip the lines at Barcelona’s two main Gaudi masterpieces with this fast-track tour. Your guide picking you up at your hotel, you’ll head straight to the Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Familia Private Guided Tour with Skip the Line Tickets </t>
+          <t xml:space="preserve">Title: The Glorious Gaudi Tour: Sagrada Familia &amp; Park Guell </t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 123</t>
+          <t>TotalReviews: 102</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P15</t>
+          <t>PRODUCTCODE: 190179P3</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Familia is one of Gaudí's most famous works in Barcelona. It's a giant Basilica that has been under construction since 1882. The Park Güell is a miniature city of houses for the wealthy in landscaped grounds. It originated in 1900, when Count Eusebi Guell bought a tree-covered hillside.</t>
+          <t>Summarized description: The Sagrada Familia is a 1-hour and 15-minute guided tour. At 4:00 pm, we will continue with the Park Güell. The guided tour is limited to a maximum of 20 people.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: Park Guell and Sagrada Familia Tour in Barcelona</t>
+          <t xml:space="preserve">Title: Guided Tour Sagrada Familia and Park Guell </t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 118</t>
+          <t>TotalReviews: 43</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 231273P7</t>
+          <t>PRODUCTCODE: 359812P1</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Skip the lines at Barcelona’s two main Gaudi masterpieces with this fast-track tour. Your guide picking you up at your hotel, you’ll head straight to the Sagrada Familia.</t>
+          <t>Summarized description: Tour will start with a short description about Gaudi &amp; Sagrada famila’s ongoing construction. Enjoy a Fast track admission to the basilica and start with the Nativity Façade.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Glorious Gaudi Tour: Sagrada Familia &amp; Park Guell </t>
+          <t>Title: Skip The Line - Sagrada Familia Guided Tour &amp; Tickets</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 102</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 190179P3</t>
+          <t>PRODUCTCODE: 7548P16</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is a 1-hour and 15-minute guided tour. At 4:00 pm, we will continue with the Park Güell. The guided tour is limited to a maximum of 20 people.</t>
+          <t>Summarized description: Sagrada Família is the most important architectural jewel of Antoni Gaudí. We will explain the details, the symbols, the structural secrets, the technical innovation.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Guided Tour Sagrada Familia and Park Guell </t>
+          <t>Title: The Gaudí tour with fast track entrance to Sagrada Família</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 43</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 359812P1</t>
+          <t>PRODUCTCODE: 227387P1</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Tour will start with a short description about Gaudi &amp; Sagrada famila’s ongoing construction. Enjoy a Fast track admission to the basilica and start with the Nativity Façade.</t>
+          <t>Summarized description: The Sagrada Familia is one of the most famous buildings in the world. It was designed by Antoni Gaudí and is located in the centre of Barcelona.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Skip The Line - Sagrada Familia Guided Tour &amp; Tickets</t>
+          <t>Title: Sagrada Familia Private Tour with Priority Entrance</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 27</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P16</t>
+          <t>PRODUCTCODE: 3731P214</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Família is the most important architectural jewel of Antoni Gaudí. We will explain the details, the symbols, the structural secrets, the technical innovation.</t>
+          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Take a guided tour of the two works with an expert, English-speaking guide.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: The Gaudí tour with fast track entrance to Sagrada Família</t>
+          <t>Title: Barcelona: Sagrada Familia &amp; Park Güell Guided Tours Combo</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 59104P32</t>
+          <t>PRODUCTCODE: 2140P214</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is the most known and characteristic monument of Barcelona. Thousands of tourists come every day to contemplate the curious but unfinished temple.</t>
+          <t>Summarized description: Visit the most important landmark in the city of Barcelona, the Sagrada Familia. Learn about the secrets hidden and skip the lines in Park Güell. Walk along the mostimportant street in Barcelona and access Casa Batlló.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Tickets to Basilica of the Sagrada Familia</t>
+          <t>Title: Barcelona Skip-the-Line Gaudi Tour: Sagrada Familia, Park Guell, Casa Batllo</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 227387P1</t>
+          <t>PRODUCTCODE: 9866P18</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is one of the most famous buildings in the world. It was designed by Antoni Gaudí and is located in the centre of Barcelona.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are considered Gaudí's crowning works. You will get to visit both of these sites with an expert guide.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Private Tour with Priority Entrance</t>
+          <t>Title: Sagrada Familia and Park Güell Small Group Guided Tour</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 348180P5</t>
+          <t>PRODUCTCODE: 2140P265</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: The La Sagrada Familia is one of the most famous buildings in Barcelona. With our ticket, you can get to know the Icon building of Barcelona, and the biggest temple.</t>
+          <t>Summarized description: The Sagrada Familia is one of the emblems of Barcelona and attracts millions of visitors every year. With the explanations of our guides you will learn about the history of its creation and you will discover all the secrets that the park hides.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: La Sagrada Familia Skip The Line Entrance in Barcelona</t>
+          <t>Title: Fast track: Sagrada Familia and Park Güell guided tour</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7845P46</t>
+          <t>PRODUCTCODE: 22869P131</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Antoni Gaudi's unfinished masterpiece is an "organic-looking" basilica in the heart of Barcelona. Your guide will tell you everything you need to know about the building, its construction and its famous artist-architect.</t>
+          <t>Summarized description: La Sagrada Familia is a giant Basilica that has been under construction since 1882. The Park Guell originated in 1900, when Count Eusebi Güell bought a tree-covered hillside.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Skip the line Guided Tour</t>
+          <t>Title: Park Guell and Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P52</t>
+          <t>PRODUCTCODE: 9866P123</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona's Basilica of Sagrada Familia is the pride and joy of the city. Antoni Gaudi's masterpiece remains unfinished, and every visit offers something new. If you're looking to explore this breath-taking building, then this is the tour for you.</t>
+          <t>Summarized description: Discover the two main highlights of Barcelona and Sagrada Familia and Park Güell with a professional local guide. Both are considered masterpieces of Gaudí and you can’t leave Barcelona without seeing them.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Fast Track: Sagrada Familia Guided Tour </t>
+          <t>Title: Private Sagrada Familia &amp; Park Guell Guided Tour</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 232299P2</t>
+          <t>PRODUCTCODE: 31070P35</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia will be finished in 2026 on the 100th anniversary of Gaudí's death. It will have taken a whopping 144 years to complete. The Great Pyramid of Giza took just 20 years.</t>
+          <t>Summarized description: Gaudi’s Sagrada is an intricate representation of Christian beliefs intertwined with a nature-inspired design. Park Güell showcases the modernist architecture in its most fluid and natural state. This guided tour offers you an instant skip-the-line access to both landmarks.</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: Tickets for Sagrada Familia: Fast Track</t>
+          <t>Title: Guided Tour to Sagrada Familia &amp; Park Guell</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P214</t>
+          <t>PRODUCTCODE: 13878P27</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the most important landmark in the city of Barcelona, the Sagrada Familia. Learn about the secrets hidden and skip the lines in Park Güell. Walk along the mostimportant street in Barcelona and access Casa Batlló.</t>
+          <t>Summarized description: Tour of Park Güell and Sagrada Familia Cathedral. Enjoy the facades and interior of the basilica. Learn about the symbolism of the cathedral through stone construction.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: Barcelona Skip-the-Line Gaudi Tour: Sagrada Familia, Park Guell, Casa Batllo</t>
+          <t>Title: Sagrada Familia &amp; Park Güell</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P18</t>
+          <t>PRODUCTCODE: 14218P16</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are considered Gaudí's crowning works. You will get to visit both of these sites with an expert guide.</t>
+          <t>Summarized description: Learn about the history and significance of Sagrada Familia. Discover how nature influenced and inspired Gaudí on his planning. Visit the most artistic park in the city, Park Güell.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia and Park Güell Small Group Guided Tour</t>
+          <t>Title: Park Güell and Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P23</t>
+          <t>PRODUCTCODE: 51738P52</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia Basilica is an absolute must-see. Learn the story behind Gaudí’s masterwork from your professional guide.</t>
+          <t>Summarized description: Sagrada Familia and Park Guell Tour for Kids and Families. Tour will make you discover the Gaudi’s modernist achitecture while having fun.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Skip-the-Line Tickets and Guided Tour</t>
+          <t>Title: Barcelona Sagrada Familia and Park Guell for Kids and Families</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 374060P1</t>
+          <t>PRODUCTCODE: 41348P37</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia in Barcelona is one of the most beautiful buildings in the city. The Sagrada is a UNESCO World Heritage Site and was built in the 12th century.</t>
+          <t>Summarized description: Sagrada Familia is Barcelona's most famous monument. Tour as part of a small group of 20 participants, in the company of an expert fully licensed guide.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Barcelona Skip-The-Line entry ticket</t>
+          <t>Title: Sagrada Familia Experience Guided Tour</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21175P148</t>
+          <t>PRODUCTCODE: 198206P1</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is a UNESCO site that is still under development. Designed by genius architect Antoni Gaudì, it combines nature, architecture and symbolism for a completely unique and intricate structure.</t>
+          <t>Summarized description: The Sagrada Familia is one of the most famous buildings in the world. A private tour will give you the chance to explore the Basilica in an enjoyable way.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Tour with Skip the Line Access</t>
+          <t>Title: All about Sagrada Familia in a Private Tour. Unforgettable!</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13878P23</t>
+          <t>PRODUCTCODE: 244199P11</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia of Barcelona is the most atractive monument in this city. You will be annoyed with the history of Gaudí and all the details of SagrADA Familia.</t>
+          <t>Summarized description: Guided tour of the Sagrada Familia with an expert guide and a group of up to 20 people. See the Basilica’s dream-like façade and interior in a small-group setting.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Familia Guided Tour with Skip the Line Tickets </t>
+          <t>Title: Barcelona : Sagrada Familia Fast-Track Guided Tour</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P404</t>
+          <t>PRODUCTCODE: 26153P22</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia is one of the most famous buildings in the world. One of Antoni Gaudi's most famous works of art, it is a UNESCO World Heritage Site.</t>
+          <t>Summarized description: Gaudì's Sagrada Familia is Barcelona's most famous monument. Join a small group of up to 20 people to visit Gaudi's unfinished masterpiece. Our driver will then take you by bus to finish your tour at Park Güell.</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Skip the Line Tickets to Sagrada Familia</t>
+          <t>Title: Combo Tour Sagrada Familia + Park Güell with Transportation</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140P265</t>
+          <t>PRODUCTCODE: 244199P28</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is one of the emblems of Barcelona and attracts millions of visitors every year. With the explanations of our guides you will learn about the history of its creation and you will discover all the secrets that the park hides.</t>
+          <t>Summarized description: The Casa Milà &amp; Casa Batlló explores his life from every corner of its great architectural works to its favorite café. Finally ends his masterpiece with priority entry: the Sagrada Familia!Learn all about Gaudí and his masterpieces during this 3-hour private tour.</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Title: Fast track: Sagrada Familia and Park Güell guided tour</t>
+          <t>Title: Barcelona : Gaudi &amp; Sagrada Familia Private Tour (Skip The Line Entrance)</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P2</t>
+          <t>PRODUCTCODE: 220865P1</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Família means so much to Barcelona that it is impossible to understand the city as it is today without Gaudí and the temple. Learn about the history of one of the most impressive landmarks in the world in a 90 minutes tour and then enter the temple without waiting in line.</t>
+          <t>Summarized description: Explore and discover the building and its secrets on this exclusive walk with a local licensed guide. Skip the line and let us guide you through Antoni Gaudi’s amazing masterpiece.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: Gaudí &amp; Sagrada Familia Small Group Tour</t>
+          <t>Title: Skip The Line : La Sagrada Familia Guided Tour</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P131</t>
+          <t>PRODUCTCODE: 92458P11</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Familia is a giant Basilica that has been under construction since 1882. The Park Guell originated in 1900, when Count Eusebi Güell bought a tree-covered hillside.</t>
+          <t>Summarized description: The Sagrada Familia is an impressive masterpiece of modern architecture and the expression of the genius of Antoni Gaudí. Relax and enjoy an unforgettable 1.5-hour tour with a knowledgeable guide.</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Title: Park Guell and Sagrada Familia Private Tour</t>
+          <t xml:space="preserve">Title: Sagrada Famila Guided Tour - fast track entrance </t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P123</t>
+          <t>PRODUCTCODE: 17377P25</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the two main highlights of Barcelona and Sagrada Familia and Park Güell with a professional local guide. Both are considered masterpieces of Gaudí and you can’t leave Barcelona without seeing them.</t>
+          <t>Summarized description: Official Guide Tour gives you skip-the-line access at La Sagrada Familia without crowds. Have the Golden Hour with the afternoon light, to admire the magic of the stained-glass windows inside. You'll continue to Park Güell where the city is beneath your feet.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Title: Private Sagrada Familia &amp; Park Guell Guided Tour</t>
+          <t xml:space="preserve">Title: Golden Hour in Sagrada Familia Tour &amp; Sunset Sesh at Park Güell </t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 307099P28</t>
+          <t>PRODUCTCODE: 5819P123</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia is Gaudí's most famous work of art. Skip the lines with included tickets and delve into the basilica alongside a dedicated guide. Exclusive headsets ensure a private dialogue.</t>
+          <t>Summarized description: Tour of the Cathedral of the Sagrada Familia. Enjoy the facades and the interior of the basilica. The Park Güell has more than 100 years of history and is based on art nouveau.</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Private Guided Tour</t>
+          <t>Title: Guided tour of the Sagrada Familia and Park Güell</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P35</t>
+          <t>PRODUCTCODE: 243885P14</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: Gaudi’s Sagrada is an intricate representation of Christian beliefs intertwined with a nature-inspired design. Park Güell showcases the modernist architecture in its most fluid and natural state. This guided tour offers you an instant skip-the-line access to both landmarks.</t>
+          <t>Summarized description: The program starts with a 1h 15min guided tour of Park Güell, including fast-track admission. After that, you will have a break to have lunch and get to the afternoon meeting point. You will hear about the history of Gaudí and how he helped shape Barcelona as we know it today.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: Guided Tour to Sagrada Familia &amp; Park Guell</t>
+          <t>Title: Guided Walking Tour in Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 183204P2</t>
+          <t>PRODUCTCODE: 20455P293</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is Antoni Gaudí's unfinished masterpiece. The cathedral will be finished in 2026, on the 100th anniversary of his death. The cost of your fast-track ticket will go towards the work still needed to finish it.</t>
+          <t>Summarized description: La Sagrada Familia and Park Guell are two of Antoni Gaudi's most admired works. This 3 hour guided tour includes fast-track entry to both the cathedral and park.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Tickets for Sagrada Familia: Fast Track（Audio Guide）</t>
+          <t>Title: Barcelona Skip the Line Sagrada Familia &amp; Parc Guell Private Tour</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207301P4</t>
+          <t>PRODUCTCODE: 25160P28</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: Park Guell wasn't conceived as a park. Experience the magic of the park hassle-free with our skip-the-line tour. All our guides are accredited by country tourism authorities.</t>
+          <t>Summarized description: Learn the story behind Gaudí’s masterwork from your professional guide. Enjoy panoramic views from the towers of the Sagrada Familia Basilica.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Title: Park Guell Group Guided Walking Tour with Skip the Line Access</t>
+          <t>Title: Sagrada Familia with Towers Skip-the-Line guided Tour</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13878P32</t>
+          <t>PRODUCTCODE: 47475P41</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to the Sagrada Familia in a Private Way: the great work of Catalan modernism and its greatest exponent, Antonio Gaudí. By the Hand of an official guide and great connoisseur of the work.</t>
+          <t>Summarized description: The Sagrada Família is a must for any visit to Barcelona. This one-of-a-kind walking tour helps you discover it in a unique way.</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Title: Private Sagrada Familia Tour</t>
+          <t>Title: Sagrada Família Outdoor Walking Tour With Entry Ticket</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13878P27</t>
+          <t>PRODUCTCODE: 332541P577</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of Park Güell and Sagrada Familia Cathedral. Enjoy the facades and interior of the basilica. Learn about the symbolism of the cathedral through stone construction.</t>
+          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines &amp; enjoy the nature, architecture &amp; art in the heart of Barcelona. Optional: private car transfers &amp; skip-the-line tickets to La Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia &amp; Park Güell</t>
+          <t>Title: Replaced: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P16</t>
+          <t>PRODUCTCODE: 220865P2</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and significance of Sagrada Familia. Discover how nature influenced and inspired Gaudí on his planning. Visit the most artistic park in the city, Park Güell.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are two of Barcelona's most popular tourist attractions. Tour both sites with a licensed guide to see details and secrets you might miss.</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Title: Park Güell and Sagrada Familia Private Tour</t>
+          <t xml:space="preserve">Title: Skip the Line: Park Güell &amp; La Sagrada Familia Guided Tour </t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51738P52</t>
+          <t>PRODUCTCODE: 340534P1</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Guell Tour for Kids and Families. Tour will make you discover the Gaudi’s modernist achitecture while having fun.</t>
+          <t>Summarized description: La Sagrada Família and Park Güell are two of Antoni Gaudi's modernist masterpieces. Tour both sites to know secrets and highlights you would miss on your own. Relax with private transport between the sights.</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Title: Barcelona Sagrada Familia and Park Guell for Kids and Families</t>
+          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P11</t>
+          <t>PRODUCTCODE: 244199P8</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Familia, though still unfinished, forms an indispensable part of the city’s landscape and Catalan culture. Antoni Gaudí is the visionary architect behind its design bursting with shapes, colors, and patterns.</t>
+          <t>Summarized description: Discover Gaudi's masterpieces as we explore Barcelona's finest. From the Casa Batllo in Gaudí, the Sagrada Familia to Park Guell with a priority pass and more.</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Skip The Line Tickets</t>
+          <t>Title: Guided Skip the line ticket Park Guell &amp; Gaudi's Masterpieces Experience</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P28</t>
+          <t>PRODUCTCODE: 196771P28</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Summarized description: The Casa Milà &amp; Casa Batlló explores his life from every corner of its great architectural works to its favorite café. Finally ends his masterpiece with priority entry: the Sagrada Familia!Learn all about Gaudí and his masterpieces during this 3-hour private tour.</t>
+          <t>Summarized description: Sagrada Familia is a UNESCO-listed masterpiece of Catalan Modernist architecture. Park Güell showcases Gaudí at the peak of his talent. Skip the line through a separate entrance.</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Title: Barcelona : Gaudi &amp; Sagrada Familia Private Tour (Skip The Line Entrance)</t>
+          <t>Title: Sagrada Familia &amp; Park Güell Guided Tour (with Transportation)</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220865P1</t>
+          <t>PRODUCTCODE: 2140P240</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Summarized description: Explore and discover the building and its secrets on this exclusive walk with a local licensed guide. Skip the line and let us guide you through Antoni Gaudi’s amazing masterpiece.</t>
+          <t>Summarized description: Learn about the works of Gaudí from his origins to the most famous and emblematic buildings. Visit Casa Vicens, the first project of the architect in Barcelona. Head to Park Guell and enjoy the amazing views over the city.</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Title: Skip The Line : La Sagrada Familia Guided Tour</t>
+          <t>Title: Early access to Casa Vicens and guided tours to Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 92458P11</t>
+          <t>PRODUCTCODE: 6899P12</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is an impressive masterpiece of modern architecture and the expression of the genius of Antoni Gaudí. Relax and enjoy an unforgettable 1.5-hour tour with a knowledgeable guide.</t>
+          <t>Summarized description: Lose yourself in the weird and wonderful world of Antoni Gaudi. Enjoy skip-the-line access to his most memorable masterpiece, La Sagrada Familia. Explore inside Casa Milá with an audioguide tour.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Sagrada Famila Guided Tour - fast track entrance </t>
+          <t>Title: Barcelona Shore Excursion:Skip the Line Sagrada Familia, Park Guell &amp; La Pedrera</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P25</t>
+          <t>PRODUCTCODE: 244199P2</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Summarized description: Official Guide Tour gives you skip-the-line access at La Sagrada Familia without crowds. Have the Golden Hour with the afternoon light, to admire the magic of the stained-glass windows inside. You'll continue to Park Güell where the city is beneath your feet.</t>
+          <t>Summarized description: Explore Gaudi's stunning fantastic piece: the Sagrada Familia. Take advantage of special treatment and bypass priority entry entrances. Make the most of your time with your own professional guide and enjoy a private tour.</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Golden Hour in Sagrada Familia Tour &amp; Sunset Sesh at Park Güell </t>
+          <t>Title: Sagrada Familia Private Tour Skip the Line</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5819P123</t>
+          <t>PRODUCTCODE: 9204P36</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of the Cathedral of the Sagrada Familia. Enjoy the facades and the interior of the basilica. The Park Güell has more than 100 years of history and is based on art nouveau.</t>
+          <t>Summarized description: Gaudi’s Sagrada Familia is a UNESCO world Heritage Site. The ‘Basilica of the Holy Family’ is expected to be inaugurated in 2026. Take your guide and dive into the beauty and hidden world that Gaudi has created.</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Title: Guided tour of the Sagrada Familia and Park Güell</t>
+          <t>Title: Barcelona Gaudi's Sagrada Familia VIP Private Tour</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 243885P14</t>
+          <t>PRODUCTCODE: 90219P315</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Summarized description: The program starts with a 1h 15min guided tour of Park Güell, including fast-track admission. After that, you will have a break to have lunch and get to the afternoon meeting point. You will hear about the history of Gaudí and how he helped shape Barcelona as we know it today.</t>
+          <t>Summarized description: Get amazing views of Barcelona on board a bus. Skip the long lines to explore the Sagrada Familia and Park Güell. See the amazing Casa Batlló and La Pedrera. Learn the fascinating history of Antoni Gaudi.</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Title: Guided Walking Tour in Park Güell and Sagrada Familia</t>
+          <t xml:space="preserve">Title: Sagrada Familia &amp; Park Güell Exclusive Tour:Live tour guide(with Skip the line) </t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P293</t>
+          <t>PRODUCTCODE: 332541P573</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Familia and Park Guell are two of Antoni Gaudi's most admired works. This 3 hour guided tour includes fast-track entry to both the cathedral and park.</t>
+          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines and enjoy the nature, architecture and art in the heart of Barcelona.</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Title: Barcelona Skip the Line Sagrada Familia &amp; Parc Guell Private Tour</t>
+          <t>Title: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11131P18</t>
+          <t>PRODUCTCODE: 193119P5</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Park Güell with an official guide who will explain everything about this magical place. Get to know the stories and origins of this unique urban project. Enjoy the view of the city of Barcelona from this hill.</t>
+          <t>Summarized description: Antoni Gaudis two most famous landmarks, including guided tours of the Parc Guel and Casa Batlló. See Guell Park’s colorful walls, floors, columns created by Gaudi. Enjoy panoramas of Barcelona from Carmel Hill.</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Title: Park Guell Guided Tour with Skip the Line Ticket</t>
+          <t>Title: Barcelona Combo : Park Güell &amp; Casa Batlló Guided Tour (Skip-the-Line)</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90894P205</t>
+          <t>PRODUCTCODE: 226727P37</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Summarized description: Antoni Gaudí Park is one of the most important works by the architect. Declared a World Heritage Site by UNESCO in 1984. Walk around the Monumental area of the park.</t>
+          <t>Summarized description: Make seeing the Sagrada Familia the first thing you do in Barcelona. Head to another Gaudi architect masterpiece — Park Güell. Explore Barcelona's most visited sights with the private audio tour.</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip the Line - Park Güell Guided Walking Tour </t>
+          <t>Title: The Best of Barcelona Audio Tour: Sagrada Familia, Park Guell &amp; Gothic Quarter</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364156P2</t>
+          <t>PRODUCTCODE: 26153P30</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Summarized description: The Cathedral of the Holy Family (Sagrada Familia) in Barcelona is one of the largest churches in the world. It was designed by Antoni Gaudi, a renowned architect who died before it was completed.</t>
+          <t>Summarized description: The UNESCO recognized Sagrada Familia Cathedral is the symbol of Barcelona that is unique and visually enchanting. Step into Gaudì’s enchanted universe with this child-friendly 4-hour tour.</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Guided Tour with Skip The Line Access</t>
+          <t>Title: Sagrada Familia and Park Güell Adventure for Kids</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 142027P3</t>
+          <t>PRODUCTCODE: 3731P251</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia is a amazing monument: the great work of Catalan modernism and its greatest exponent, Antonio Gaudí. You will can visit the Basilica with an expert local guide.</t>
+          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Travel to and from the works in a private, air-conditioned bus.</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Private tour</t>
+          <t>Title: Fast Sagrada Familia &amp; Park Guell Guided Tour with Transportation-Group Option</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364156P3</t>
+          <t>PRODUCTCODE: 128905P117</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is one of the most-visited landmarks of Barcelona. It is surrounded on two sides by beautiful gardens. The reflection of natural light through stained glass, combined with the colors of the interior creates an aesthetic vibe.</t>
+          <t>Summarized description: Gaudí's masterpiece was awarded Unesco World Heritage status in 1984. The tour explores the Monumental Zone and takes an in-depth and unusual sidelook at the rest of the Park.</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Audio Guided Tour with Admission Ticket</t>
+          <t>Title: Park Güell: interactive tour with a mobile app and SKIP-THE-LINE tickets</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226984P1</t>
+          <t>PRODUCTCODE: 56823P37</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Summarized description: Book your tickets to Barcelona's number one attraction on your phone – it takes just one minute! Save yourself up to 2 hours in line. But book ahead if you can, these tickets sell out fast.</t>
+          <t>Summarized description: Explore the Sagrada Familia on this 2-hours guided tour. Discover the impressive Gaudi's masterpiece and enjoy panoramic views of Barcelona from the Tower.</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Tickets for Sagrada Familia</t>
+          <t>Title: Sagrada Familia: Fast Track Guided Tour with Tower Access - Group Option</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P191</t>
+          <t>PRODUCTCODE: 415184P105</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is one of Gaudí's most famous works of art. The 1.5-hour self-guided tour is available on the mobile app of the Basilica.</t>
+          <t>Summarized description: Ascend one of the Sagrada Família's iconic towers for breathtaking views of Barcelona. Say goodbye to long queues and waiting times with our skip-the-line access.</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Title: Fast Track Sagrada Familia Interactive Self-Guided Tour in the Mobile App</t>
+          <t>Title: Sagrada Familia with Towers: Skip The Line ticket Guided Tour</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Modern Attractions']</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P28</t>
+          <t>PRODUCTCODE: 399040P1</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the story behind Gaudí’s masterwork from your professional guide. Enjoy panoramic views from the towers of the Sagrada Familia Basilica.</t>
+          <t>Summarized description: Sagrada Familia and Park Güell are two of Antoni Gaudí's most famous works of art. Enjoy a skip-the-line tour and private transport between the two sites.</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia with Towers Skip-the-Line guided Tour</t>
+          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144479P24</t>
+          <t>PRODUCTCODE: 186143P121</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia is a congregation dissimilar to some other. It is a strange blend of Gothic and Art-Nouveau styles. Stroll through the congregation dream-like inside.</t>
+          <t>Summarized description: Explore one of Gaudí's work of architectural art, the iconic Park Güell, a UNESCO World Heritage Site. Enjoy a guided tour with a local guide who will enlighten you.</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Sagrada Familia Ticket + Self-guided tour in Questcity App</t>
+          <t>Title: Barcelona Amazing Park Güell Guided Tour (Skip-the-Line)</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 47475P41</t>
+          <t>PRODUCTCODE: 90219P24</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Família is a must for any visit to Barcelona. This one-of-a-kind walking tour helps you discover it in a unique way.</t>
+          <t>Summarized description: Your tour begins at 9:30am outside of Bar Picasso, located on Carrer Mallorca in central Barcelona. Walk to La Sagrada Familia, indisputably Antoni Gaudi’s most famous work, before heading inside and bypassing long lines.</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Title: Sagrada Família Outdoor Walking Tour With Entry Ticket</t>
+          <t>Title: Exclusive Barcelona Tour Skip-The-Line Sagrada Familia &amp; Park Güell Guided Tour</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 41348P15</t>
+          <t>PRODUCTCODE: 6310GAUDI</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Summarized description: A private driver with car or minivan will accompany you for the whole day (pick up and drop off at the port is included) You will also access the Sagrada Familia, Gaudì’s masterpiece.</t>
+          <t>Summarized description: Learn all about the Modernist maestro who stamped his mark on the city. Visit four of his top creations: La Pedrera, Casa Batlló, Park Güell and the UNESCO-listed La Sagrada Familia cathedral.</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Title: Private Shore excursion of Barcelona with Skip the Line Sagrada Familia Ticket</t>
+          <t>Title: Skip the Line: Gaudi Tour Including La Sagrada Familia, Park Güell, La Pedrera and Casa Batlló</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Transportation &amp; Travel Services', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P577</t>
+          <t>PRODUCTCODE: 239137P2</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Summarized description: Enter the surreal world of Antoni Gaudi on a private tour of Park Güell. Skip the lines &amp; enjoy the nature, architecture &amp; art in the heart of Barcelona. Optional: private car transfers &amp; skip-the-line tickets to La Sagrada Familia.</t>
+          <t>Summarized description: Explore Gaudí's work during a private tour of the city with your favorite local architect. Experience his life from every perspective from his wonderful architectural works, the Casa Milà &amp; Casa Batlló. And finish at his masterpiece with the prior entry: the Sagrada Familia.</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Title: Replaced: Skip-the-line Park Güell &amp; Sagrada Familia Private Tour</t>
+          <t>Title: Barcelona Best : Gaudi Tour &amp; Sagrada Familia Skip The Line Entrance</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175789P21</t>
+          <t>PRODUCTCODE: 152250P7</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Summarized description: Park Güell was originally conceived as a housing development inspired by the garden city movement of England. It was opened as a municipal park in 1926, recognized as an artistic monument in 1969 and declared a UNESCO World Heritage Site in 1984.</t>
+          <t>Summarized description: Discover both Park Güell and Sagrada Familia with an efficiently designed Half Day Tour. Get good quality tours at the most visited monuments in Barcelona, whilst saving time to make the most of your trip.</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Title: Barcelona Gaudi Tour : Parc Guell Premium Experience (Skip the Line)</t>
+          <t>Title: Half Day Gaudi Tour: Park Güell and Sagrada Familia</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 220865P2</t>
+          <t>PRODUCTCODE: 302481P101</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are two of Barcelona's most popular tourist attractions. Tour both sites with a licensed guide to see details and secrets you might miss.</t>
+          <t>Summarized description: Explore the interior of Sagrada Familia as the audio guide explains the details of Gaudi's creation. Find out about the numerous symbols on the facades of the church. Admire panoramic views of the city in Park Guell. Explore the limits of human imagination in one of the most extraordinary parks in the World.</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip the Line: Park Güell &amp; La Sagrada Familia Guided Tour </t>
+          <t>Title: 2 Days Gaudi Combo: Sagrada Familia &amp; Park Guell Tickets with In-App Audio Tour</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115962P5</t>
+          <t>PRODUCTCODE: 350808P2695</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Summarized description: The Sagrada Familia is a must-see when in Barcelona. Save up time with your skip-the-line ticket and enjoy an unforgettable 1.5-hour tour.</t>
+          <t>Summarized description: Private tour of Sagrada Familia and Park Guell. Private excursions are meticulously designed schedule. Leave the details to us as we escort you on an extraordinary adventure.</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Sagrada Familia guided tour (skip-the-line)</t>
+          <t>Title: Private Tour of Sagrada Familia and Park Guell</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 340534P1</t>
+          <t>PRODUCTCODE: 2140P287</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Summarized description: La Sagrada Família and Park Güell are two of Antoni Gaudi's modernist masterpieces. Tour both sites to know secrets and highlights you would miss on your own. Relax with private transport between the sights.</t>
+          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
+          <t>Title: Skip the Line: Park Güell and La Sagrada Familia Tour in Barcelona - Group Opt</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P8</t>
+          <t>PRODUCTCODE: 17377P54</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Gaudi's masterpieces as we explore Barcelona's finest. From the Casa Batllo in Gaudí, the Sagrada Familia to Park Guell with a priority pass and more.</t>
+          <t>Summarized description: Tour includes skip-the-line access to La Sagrada Familia, Parc Guell, and La Pedrera. Includes guided visits to the Gothic Quarter and Montjuic.</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Title: Guided Skip the line ticket Park Guell &amp; Gaudi's Masterpieces Experience</t>
+          <t>Title: Barcelona Skip the Line Tour: Sagrada Familia, Park Güell &amp; La Pedrera - Group</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P32</t>
+          <t>PRODUCTCODE: 145071P106</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Sagrada Familia in 1.5 hours with an expert guide and small group size. Relax and enjoy the tour knowing you have reserved your entry ticket and discover the history of this iconic cathedral.</t>
+          <t>Summarized description: Guided visit inside Sagrada Familiy, Skip the Line. Walking tour of Barcelona's Gothic Quarter. Visit to Gaudi's famous La Pedrera.</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Title: Sagrada Familia Guided Tour with Fast-Track Entry</t>
+          <t>Title: Best of Barcelona Tour w/ Sagrada Familia Skip-the-Line</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112782P5</t>
+          <t>PRODUCTCODE: 31070P41</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>Summarized description: Get your skip-the-line ticket, meet your guide and enjoy an unforgettable 1.5 hour tour of this majestic Catholic church and Museum. The Sagrada Familia church was designed by the great Antoni Gaudí.</t>
+          <t>Summarized description: Both Sagrada Familia and Park Güell make the top of the list for most travelers. This private guided tour comprises an instant skip-the-line entry to both landmarks as well as the expert commentary of your personal knowledgeable guides.</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Title: Skip-The-Line: Sagrada Familia Guided Tour</t>
+          <t>Title: Private Tour Sagrada Familia &amp; Park Guell</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P28</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20134,2781 +20134,6 @@
       <c r="H1309" t="inlineStr"/>
       <c r="I1309" t="inlineStr"/>
     </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>Summarized description: Sagrada Familia is a UNESCO-listed masterpiece of Catalan Modernist architecture. Park Güell showcases Gaudí at the peak of his talent. Skip the line through a separate entrance.</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia &amp; Park Güell Guided Tour (with Transportation)</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2140P240</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about the works of Gaudí from his origins to the most famous and emblematic buildings. Visit Casa Vicens, the first project of the architect in Barcelona. Head to Park Guell and enjoy the amazing views over the city.</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Title: Early access to Casa Vicens and guided tours to Park Güell and Sagrada Familia</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6899P12</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>Summarized description: Lose yourself in the weird and wonderful world of Antoni Gaudi. Enjoy skip-the-line access to his most memorable masterpiece, La Sagrada Familia. Explore inside Casa Milá with an audioguide tour.</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Shore Excursion:Skip the Line Sagrada Familia, Park Guell &amp; La Pedrera</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2140P301</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>Summarized description: Gaudí's Sagrada Familia and Casa Batlló are two of the architect's most famous works. Take a virtual tour of the basilica with commentary via headsets. Explore the opulent main floor of the family home.</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia and Casa Batllo Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 244199P2</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore Gaudi's stunning fantastic piece: the Sagrada Familia. Take advantage of special treatment and bypass priority entry entrances. Make the most of your time with your own professional guide and enjoy a private tour.</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia Private Tour Skip the Line</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 143900P2</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>Summarized description: Park Guell is a must see for every traveler that comes to the beautiful city of Barcelona. Count on us to enjoy this Gaudinean architectural master piece with an expert local guide as company.</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Title: PARK GUELL GUIDED TOUR (SKIP THE LINE) - Gaudi</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 196771P87</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>Summarized description: Avoid the lines at Barcelona’s most iconic monument on a tour of the Sagrada Familia Basilica. See Gaudi's work from the inside and enjoy panoramic city views from one of the towers.</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia Exclusive : Guided Tour with Tower Access</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P315</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>Summarized description: Get amazing views of Barcelona on board a bus. Skip the long lines to explore the Sagrada Familia and Park Güell. See the amazing Casa Batlló and La Pedrera. Learn the fascinating history of Antoni Gaudi.</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Sagrada Familia &amp; Park Güell Exclusive Tour:Live tour guide(with Skip the line) </t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239937P3</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Sagrada Familia in 1.5 hours with an associate knowledgeable guide. Relax and enjoy the tour knowing that you have reserved your entry ticket and will have priority access to the Basilica.</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Sagrada Familia Exclusive: Official Guided Tour with Skip The Line Ticket </t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr"/>
-      <c r="I1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 332541P576</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr"/>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr"/>
-      <c r="I1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>Summarized description: Park Güell is one of Barcelona’s most popular attractions for both adults and children. Save time with skip-the-line tickets and explore one of the most impressive public parks.</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr"/>
-      <c r="I1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Title: Skip-the-line Park Güell Private Tour with Transfers</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr"/>
-      <c r="I1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
-      <c r="I1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr"/>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr"/>
-      <c r="E1358" t="inlineStr"/>
-      <c r="F1358" t="inlineStr"/>
-      <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr"/>
-      <c r="I1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 193119P5</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr"/>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr"/>
-      <c r="E1359" t="inlineStr"/>
-      <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr"/>
-      <c r="I1359" t="inlineStr"/>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>Summarized description: Antoni Gaudis two most famous landmarks, including guided tours of the Parc Guel and Casa Batlló. See Guell Park’s colorful walls, floors, columns created by Gaudi. Enjoy panoramas of Barcelona from Carmel Hill.</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr"/>
-      <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr"/>
-      <c r="I1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Combo : Park Güell &amp; Casa Batlló Guided Tour (Skip-the-Line)</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr"/>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr"/>
-      <c r="E1361" t="inlineStr"/>
-      <c r="F1361" t="inlineStr"/>
-      <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr"/>
-      <c r="I1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr"/>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr"/>
-      <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr"/>
-      <c r="I1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr"/>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr"/>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr"/>
-      <c r="I1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7845P61</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr"/>
-      <c r="I1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Summarized description: Gaudi's Sagrada Familia is a herculean undertaking intended for completion in 2026, one hundred years after the death of its architect. With our skip-the-line ticket, you’ll be quickly inside the perimeter of the basilica.</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr"/>
-      <c r="I1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Sagrada Familia Skip the line Guided Tour in Spanish </t>
-        </is>
-      </c>
-      <c r="B1366" t="inlineStr"/>
-      <c r="C1366" t="inlineStr"/>
-      <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
-      <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr"/>
-      <c r="I1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 102055P4</t>
-        </is>
-      </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
-        <is>
-          <t>Summarized description: 1.5-hour private tour to the most visited monument in Spain. Exclusive tour guide, only for you and the ones you want.</t>
-        </is>
-      </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia: Skip-the-line private tour</t>
-        </is>
-      </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>Category: ['']</t>
-        </is>
-      </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 363999P1</t>
-        </is>
-      </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
-        <is>
-          <t>Summarized description: The Sagrada Familia is Barcelona's most iconic monument. It's a unique creation by the gem architect “Antoni Gaudi" Sagradas are famous for their combination of Art Nouveau, Catalan Modernism, and Spanish Late Gothic design.</t>
-        </is>
-      </c>
-      <c r="B1375" t="inlineStr"/>
-      <c r="C1375" t="inlineStr"/>
-      <c r="D1375" t="inlineStr"/>
-      <c r="E1375" t="inlineStr"/>
-      <c r="F1375" t="inlineStr"/>
-      <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr"/>
-      <c r="I1375" t="inlineStr"/>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
-        <is>
-          <t>Title: Iconic La Sagrada Familia Skip The Line Ticket and Audio Guide</t>
-        </is>
-      </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 193119P1</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>Summarized description: The Sagrada Familia is one of the most famous buildings in the world. It was built by the Spanish architect Antoni Gaudi in the 12th century.</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>Title: Barcelona - Sagrada Familia: Guided Tour &amp; Skip The Line</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 244199P45</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>Summarized description: Bike through Barcelona like a local. See the best of Gaudi's masterpieces. Skip the line access into the Sagrada Familia.</t>
-        </is>
-      </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>Title: Gaudí Bike Tour and Sagrada Familia Skip The Line Entrance</t>
-        </is>
-      </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 3731P251</t>
-        </is>
-      </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>Summarized description: Gaudi's Sagrada Família and Park Güell are two of the architect's most impressive works of art. Travel to and from the works in a private, air-conditioned bus.</t>
-        </is>
-      </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>Title: Fast Sagrada Familia &amp; Park Guell Guided Tour with Transportation-Group Option</t>
-        </is>
-      </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
-      <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 128905P117</t>
-        </is>
-      </c>
-      <c r="B1394" t="inlineStr"/>
-      <c r="C1394" t="inlineStr"/>
-      <c r="D1394" t="inlineStr"/>
-      <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr"/>
-      <c r="I1394" t="inlineStr"/>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>Summarized description: Gaudí's masterpiece was awarded Unesco World Heritage status in 1984. The tour explores the Monumental Zone and takes an in-depth and unusual sidelook at the rest of the Park.</t>
-        </is>
-      </c>
-      <c r="B1395" t="inlineStr"/>
-      <c r="C1395" t="inlineStr"/>
-      <c r="D1395" t="inlineStr"/>
-      <c r="E1395" t="inlineStr"/>
-      <c r="F1395" t="inlineStr"/>
-      <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr"/>
-      <c r="I1395" t="inlineStr"/>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>Title: Park Güell: interactive tour with a mobile app and SKIP-THE-LINE tickets</t>
-        </is>
-      </c>
-      <c r="B1396" t="inlineStr"/>
-      <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="inlineStr"/>
-      <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr"/>
-      <c r="I1396" t="inlineStr"/>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr"/>
-      <c r="C1397" t="inlineStr"/>
-      <c r="D1397" t="inlineStr"/>
-      <c r="E1397" t="inlineStr"/>
-      <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr"/>
-      <c r="I1397" t="inlineStr"/>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1398" t="inlineStr"/>
-      <c r="C1398" t="inlineStr"/>
-      <c r="D1398" t="inlineStr"/>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr"/>
-      <c r="I1398" t="inlineStr"/>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 56823P37</t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr"/>
-      <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr"/>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr"/>
-      <c r="I1399" t="inlineStr"/>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the Sagrada Familia on this 2-hours guided tour. Discover the impressive Gaudi's masterpiece and enjoy panoramic views of Barcelona from the Tower.</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
-      <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr"/>
-      <c r="I1400" t="inlineStr"/>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia: Fast Track Guided Tour with Tower Access - Group Option</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
-      <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr"/>
-      <c r="I1401" t="inlineStr"/>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr"/>
-      <c r="E1402" t="inlineStr"/>
-      <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr"/>
-      <c r="I1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr"/>
-      <c r="E1403" t="inlineStr"/>
-      <c r="F1403" t="inlineStr"/>
-      <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr"/>
-      <c r="I1403" t="inlineStr"/>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 434522P1</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr"/>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr"/>
-      <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr"/>
-      <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr"/>
-      <c r="I1404" t="inlineStr"/>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>Summarized description: The Sagrada Familia is Barcelona's most famous landmark. Gaudí's masterpiece was completed in 1882. The façades are each a sculptural narrative depicting scenes from Christ's life.</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr"/>
-      <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr"/>
-      <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr"/>
-      <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr"/>
-      <c r="I1405" t="inlineStr"/>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia Revealed: Express Entry Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1406" t="inlineStr"/>
-      <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr"/>
-      <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr"/>
-      <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr"/>
-      <c r="I1406" t="inlineStr"/>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1407" t="inlineStr"/>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr"/>
-      <c r="E1407" t="inlineStr"/>
-      <c r="F1407" t="inlineStr"/>
-      <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr"/>
-      <c r="I1407" t="inlineStr"/>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 415184P105</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>Summarized description: Ascend one of the Sagrada Família's iconic towers for breathtaking views of Barcelona. Say goodbye to long queues and waiting times with our skip-the-line access.</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia with Towers: Skip The Line ticket Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 31070P121</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>Summarized description: Guell Park is filled with multi-colored tiled walls, columns and overlooking the city. Your guide will teach about the history of the park and the surrounding area.</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Title: Park Güell Guided Tour - Skip The Line Entrance</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 399040P1</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>Summarized description: Sagrada Familia and Park Güell are two of Antoni Gaudí's most famous works of art. Enjoy a skip-the-line tour and private transport between the two sites.</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Title: Half Day Guided Tour To Sagrada Familia And Park Guell Barcelona</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr"/>
-      <c r="I1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 186143P121</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr"/>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr"/>
-      <c r="I1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore one of Gaudí's work of architectural art, the iconic Park Güell, a UNESCO World Heritage Site. Enjoy a guided tour with a local guide who will enlighten you.</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr"/>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr"/>
-      <c r="I1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Amazing Park Güell Guided Tour (Skip-the-Line)</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
-      <c r="I1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
-      <c r="I1427" t="inlineStr"/>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
-      <c r="I1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239937P37</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
-      <c r="I1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Sagrada Familia in 1.5 hours with an expert guide and small group size. Relax and enjoy the tour knowing you have reserved your entry ticket and will have priority access to the Basilica.</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
-      <c r="I1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia Direct Access : Premium Guided Tour with Ticket</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
-      <c r="I1431" t="inlineStr"/>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr"/>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr"/>
-      <c r="I1432" t="inlineStr"/>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 244199P7</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
-      <c r="I1434" t="inlineStr"/>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about the incredible history of the Sagrada Familia, along with its stories and anecdotes that date back to 1882 when construction first began. Enjoy quick access to the monument for more time inside. Visit the museum on-site to learn about the renowned architect.</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
-      <c r="I1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Fast Track Guided Tour: Sagrada Familia Tour with Access</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr"/>
-      <c r="I1436" t="inlineStr"/>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr"/>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr"/>
-      <c r="I1437" t="inlineStr"/>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr"/>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr"/>
-      <c r="I1438" t="inlineStr"/>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P24</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr"/>
-      <c r="I1439" t="inlineStr"/>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>Summarized description: Your tour begins at 9:30am outside of Bar Picasso, located on Carrer Mallorca in central Barcelona. Walk to La Sagrada Familia, indisputably Antoni Gaudi’s most famous work, before heading inside and bypassing long lines.</t>
-        </is>
-      </c>
-      <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr"/>
-      <c r="I1440" t="inlineStr"/>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Title: Exclusive Barcelona Tour Skip-The-Line Sagrada Familia &amp; Park Güell Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr"/>
-      <c r="I1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr"/>
-      <c r="I1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr"/>
-      <c r="I1443" t="inlineStr"/>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6310GAUDI</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr"/>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr"/>
-      <c r="I1444" t="inlineStr"/>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn all about the Modernist maestro who stamped his mark on the city. Visit four of his top creations: La Pedrera, Casa Batlló, Park Güell and the UNESCO-listed La Sagrada Familia cathedral.</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr"/>
-      <c r="I1445" t="inlineStr"/>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Gaudi Tour Including La Sagrada Familia, Park Güell, La Pedrera and Casa Batlló</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr"/>
-      <c r="I1447" t="inlineStr"/>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Workshops and Classes', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr"/>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr"/>
-      <c r="I1448" t="inlineStr"/>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239137P2</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr"/>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr"/>
-      <c r="I1449" t="inlineStr"/>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore Gaudí's work during a private tour of the city with your favorite local architect. Experience his life from every perspective from his wonderful architectural works, the Casa Milà &amp; Casa Batlló. And finish at his masterpiece with the prior entry: the Sagrada Familia.</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr"/>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr"/>
-      <c r="I1450" t="inlineStr"/>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>Title: Barcelona Best : Gaudi Tour &amp; Sagrada Familia Skip The Line Entrance</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr"/>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr"/>
-      <c r="I1451" t="inlineStr"/>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
-      <c r="I1452" t="inlineStr"/>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
-      <c r="I1453" t="inlineStr"/>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 152250P7</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr"/>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr"/>
-      <c r="I1454" t="inlineStr"/>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover both Park Güell and Sagrada Familia with an efficiently designed Half Day Tour. Get good quality tours at the most visited monuments in Barcelona, whilst saving time to make the most of your trip.</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr"/>
-      <c r="I1455" t="inlineStr"/>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Title: Half Day Gaudi Tour: Park Güell and Sagrada Familia</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr"/>
-      <c r="I1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="inlineStr"/>
-      <c r="I1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr"/>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="inlineStr"/>
-      <c r="I1458" t="inlineStr"/>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 21175P149</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr"/>
-      <c r="I1459" t="inlineStr"/>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the unfinished masterpiece by Antoni Gaudi and discover all about one of UNESCO World Heritage Sites. You will meet your professional guide and the rest of your group before entering Sagrada Familia.</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr"/>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr"/>
-      <c r="I1460" t="inlineStr"/>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Title: 1.5h Skip the Line Sagrada Familia Tour</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr"/>
-      <c r="I1461" t="inlineStr"/>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr"/>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr"/>
-      <c r="I1462" t="inlineStr"/>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr"/>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr"/>
-      <c r="I1463" t="inlineStr"/>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P10</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr"/>
-      <c r="I1464" t="inlineStr"/>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore one of the world's most iconic monuments with a specialist guide. Enjoy access to one of Gaudi's towers and see his work behind the scenes. Learn about Gaudi’s symbolism and Christian iconography.</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr"/>
-      <c r="I1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Title: Sagrada Familia Guided Tour (skip the line) with Tower Access</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr"/>
-      <c r="I1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr"/>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr"/>
-      <c r="I1467" t="inlineStr"/>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr"/>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr"/>
-      <c r="I1468" t="inlineStr"/>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 197063P16</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
-      <c r="I1469" t="inlineStr"/>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the iconic church with an expert local guide. The tour starts from the gardens in front of the Nativity Façade. It then continues to the interior area, and the museum.</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
-      <c r="I1470" t="inlineStr"/>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Private Sagrada Familia Tour with Skip the Line Tickets </t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr"/>
-      <c r="I1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
-      <c r="I1472" t="inlineStr"/>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
-      <c r="I1473" t="inlineStr"/>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 244199P6</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
-      <c r="I1474" t="inlineStr"/>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>Summarized description: Walk around Barcelona and enjoy the beautiful architectural works of art by Gaudi with your own people insider. Experience the interior of the majestic Sagrada Familia with a skip-the-line pass.</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
-      <c r="I1475" t="inlineStr"/>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Title: Gaudi Walking Tour with Sagrada Familia Skip The Line</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
-      <c r="I1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
-      <c r="I1477" t="inlineStr"/>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr"/>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr"/>
-      <c r="I1478" t="inlineStr"/>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2140P287</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
-      <c r="I1479" t="inlineStr"/>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>Summarized description:  skip-the-line access to two of Barcelona’s extraordinary Antoni Gaudí creations. Start with fast-track entry and a tour at Park Güell. Afterward, visit La Sagrada Familia and skip the lines for a guided tour.</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr"/>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr"/>
-      <c r="I1480" t="inlineStr"/>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Park Güell and La Sagrada Familia Tour in Barcelona - Group Opt</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr"/>
-      <c r="I1481" t="inlineStr"/>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr"/>
-      <c r="I1482" t="inlineStr"/>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr"/>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr"/>
-      <c r="I1483" t="inlineStr"/>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 186143P5</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr"/>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr"/>
-      <c r="I1484" t="inlineStr"/>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit La Sagrada Familia Museum to see a variety of artifacts such as design sketches and plaster models. See the facades and the interiors of the basilica.</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr"/>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr"/>
-      <c r="I1485" t="inlineStr"/>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Title: Barcelona : Sagrada Familia Guided Tour (Skip the ticket line)</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr"/>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr"/>
-      <c r="I1486" t="inlineStr"/>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
-      <c r="I1487" t="inlineStr"/>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
-      <c r="I1488" t="inlineStr"/>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 145071P106</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr"/>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr"/>
-      <c r="I1489" t="inlineStr"/>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>Summarized description: Guided visit inside Sagrada Familiy, Skip the Line. Walking tour of Barcelona's Gothic Quarter. Visit to Gaudi's famous La Pedrera.</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr"/>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr"/>
-      <c r="I1490" t="inlineStr"/>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>Title: Best of Barcelona Tour w/ Sagrada Familia Skip-the-Line</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr"/>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr"/>
-      <c r="I1491" t="inlineStr"/>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr"/>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr"/>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr"/>
-      <c r="I1492" t="inlineStr"/>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr"/>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr"/>
-      <c r="I1493" t="inlineStr"/>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr"/>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr"/>
-      <c r="I1494" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
